--- a/x1plus5x2.xlsx
+++ b/x1plus5x2.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Conferences\2018-Conferences\Castelldefels_August\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/es922014/Google Drive/Research/Applications/CREDS_proposal/Numbers_for_Policy_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4811DF5-B380-4D4E-BB6E-AC0578F3E628}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54456495-F80E-4246-A0BD-4CC3C277D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{7A3B56EE-4567-4F2E-8667-1947E6FA0C79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7A3B56EE-4567-4F2E-8667-1947E6FA0C79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,7 +110,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -89,6 +122,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> = x1 + 5x2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,6 +190,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -151,618 +225,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$100</c:f>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.92443859686939656</c:v>
+                  <c:v>0.87820896339757015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98446278613700533</c:v>
+                  <c:v>0.97166806206653256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6514130455334467</c:v>
+                  <c:v>0.13362745797682307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55432480041074894</c:v>
+                  <c:v>2.7616656494269032E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20648579068107675</c:v>
+                  <c:v>0.86197192174129167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78724510382483426</c:v>
+                  <c:v>0.11330226195768012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52794587167939555</c:v>
+                  <c:v>0.57053514925890281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52541392292050648</c:v>
+                  <c:v>0.93122303113147176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87339475569114911</c:v>
+                  <c:v>0.84999898130463847</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36480274293284709</c:v>
+                  <c:v>0.79793227610794604</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4403102955176994E-2</c:v>
+                  <c:v>0.16489448861478662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62390750516629045</c:v>
+                  <c:v>0.31273323156129418</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23798493814699728</c:v>
+                  <c:v>0.74213213401615097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.227987658125264</c:v>
+                  <c:v>5.8455847791805904E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.85085343462827845</c:v>
+                  <c:v>0.29936984639688247</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85660563292356851</c:v>
+                  <c:v>0.1865908490681838</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53923098476330156</c:v>
+                  <c:v>0.51074045581400707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7023508326003207E-2</c:v>
+                  <c:v>8.3107012959610316E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.76665369416699802</c:v>
+                  <c:v>0.81137490975579363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.75527791238770037</c:v>
+                  <c:v>0.11043627462663552</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55116653107500246</c:v>
+                  <c:v>0.76507888114776723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8162694609509562</c:v>
+                  <c:v>0.80730555627999734</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59730087307812785</c:v>
+                  <c:v>0.77173499688056146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.24201021691586577</c:v>
+                  <c:v>0.75369010684246585</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7480248194927569</c:v>
+                  <c:v>4.4576643642054714E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.98853228784758207</c:v>
+                  <c:v>0.44786476449767365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.94103002792861135</c:v>
+                  <c:v>0.20843907403101947</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8982661789811246</c:v>
+                  <c:v>0.34505210213908588</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.65201127530490743</c:v>
+                  <c:v>0.94823126518789635</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15434784829556747</c:v>
+                  <c:v>0.13970593113009178</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56586760262928404</c:v>
+                  <c:v>0.65115572467920613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82413047251207838</c:v>
+                  <c:v>0.83680162486131349</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.29147268111077418</c:v>
+                  <c:v>0.62002248871500565</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.29260328356736698</c:v>
+                  <c:v>0.3908169706314879</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.73382651005723221</c:v>
+                  <c:v>0.47252192746132726</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6654381032610901</c:v>
+                  <c:v>5.0385730339049473E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.30706312725643037</c:v>
+                  <c:v>0.95196936216420336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.80861434675907096</c:v>
+                  <c:v>0.85642753128911708</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.22552921634020395</c:v>
+                  <c:v>1.2476959793702003E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.33788674943335306</c:v>
+                  <c:v>0.66389749589719049</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4242791523894072E-3</c:v>
+                  <c:v>0.24651385166669948</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.37591391070158808</c:v>
+                  <c:v>9.4213046802859135E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.815947363652064E-2</c:v>
+                  <c:v>0.3787569542755459</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.34038847974595299</c:v>
+                  <c:v>0.71229651292670948</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.21342497548392036</c:v>
+                  <c:v>0.39979616555188158</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.29391426432815038</c:v>
+                  <c:v>0.82644522149871391</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.31356044971504471</c:v>
+                  <c:v>0.93363301256645082</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.73859347989344137</c:v>
+                  <c:v>0.30134129107715446</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.59136323719974415</c:v>
+                  <c:v>0.82470594946255693</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.50224052519119999</c:v>
+                  <c:v>1.2007372348905476E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.9540459838284403</c:v>
+                  <c:v>0.75730770745853848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.16570492745266407</c:v>
+                  <c:v>0.65004923368460787</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3225861218917343E-3</c:v>
+                  <c:v>0.87029979256497458</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.82025437743003327</c:v>
+                  <c:v>0.8194580442775774</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.16731159274286123</c:v>
+                  <c:v>0.29024509491960904</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.44037158050812586</c:v>
+                  <c:v>6.8320832619338412E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2698448571618054</c:v>
+                  <c:v>0.56846300447904752</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.24743311208916885</c:v>
+                  <c:v>0.8614553762444539</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5437124903100391</c:v>
+                  <c:v>0.73088458660891298</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.82275735419675422</c:v>
+                  <c:v>0.36406510821503446</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.4512247031790898</c:v>
+                  <c:v>0.57892952588231217</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.83493706329435924</c:v>
+                  <c:v>0.23139770524253434</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.89955778092614125</c:v>
+                  <c:v>0.32548317768762314</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.74008983209217294</c:v>
+                  <c:v>2.0587805913860113E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.70452660962614255</c:v>
+                  <c:v>0.93316972321641378</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.425136855975498</c:v>
+                  <c:v>0.24672011315551423</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.60970178124742869</c:v>
+                  <c:v>0.15520725666307411</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.18701510806503363</c:v>
+                  <c:v>0.91018016303524141</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.33496560089638117</c:v>
+                  <c:v>0.23249118407000668</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.7097782201437185</c:v>
+                  <c:v>0.80346335485012987</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.14017896064590263</c:v>
+                  <c:v>9.8336075770810272E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.13648992225675871</c:v>
+                  <c:v>0.20288515255100092</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.44940583152711788</c:v>
+                  <c:v>0.85732061510403901</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.8534977367082105</c:v>
+                  <c:v>0.96044523795156955</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.79384878537854131</c:v>
+                  <c:v>0.48469409131242036</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.36921031796968407</c:v>
+                  <c:v>1.8575247895854408E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.4027181771016306</c:v>
+                  <c:v>0.49547000977029554</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.96823729261954139</c:v>
+                  <c:v>0.85193758631016503</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.39952000796837028</c:v>
+                  <c:v>0.15853075099872893</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.26747704666523453</c:v>
+                  <c:v>7.6627464765472331E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.6353404322724584</c:v>
+                  <c:v>0.30532386131208089</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.70924114849645337</c:v>
+                  <c:v>0.78166328263686613</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.7952705801398032E-2</c:v>
+                  <c:v>0.2252348758204713</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.57905336068332358</c:v>
+                  <c:v>0.18699328947376381</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.43123797387183183</c:v>
+                  <c:v>0.37936920884368497</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.8197293286596351</c:v>
+                  <c:v>0.8831507009023033</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.41206557907523322</c:v>
+                  <c:v>0.7824708008831035</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.17767494751623758</c:v>
+                  <c:v>0.38349883777301685</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.85239105574248208</c:v>
+                  <c:v>0.3861500784341253</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.55238944492239972</c:v>
+                  <c:v>5.7822282835522487E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.2391481062863392</c:v>
+                  <c:v>0.25395201350885266</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.68724333598470277</c:v>
+                  <c:v>0.27147437111408279</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.30247309922510135</c:v>
+                  <c:v>0.15886978019595654</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.57893852368373844</c:v>
+                  <c:v>0.5746518995561658</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.76510787613932629</c:v>
+                  <c:v>0.38568630053753628</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.12088740112230811</c:v>
+                  <c:v>0.62980876131836938</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.26517837237177933</c:v>
+                  <c:v>6.9337574114080591E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.49979215709810254</c:v>
+                  <c:v>0.41607769424599483</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.88273177225833244</c:v>
+                  <c:v>0.22180629728672485</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.92259293318573055</c:v>
+                  <c:v>0.25728063668902168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$100</c:f>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4.9472936417033502</c:v>
+                  <c:v>5.3522420912818207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1354439136150316</c:v>
+                  <c:v>5.478201928288394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5229042890575246</c:v>
+                  <c:v>4.3482806210713401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9730053454411447</c:v>
+                  <c:v>3.7236856039752677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2650503305919036</c:v>
+                  <c:v>1.5365965825868027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.271757796911575</c:v>
+                  <c:v>4.5864245119329823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6225576359161349</c:v>
+                  <c:v>1.3666090531941326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8650675135037247</c:v>
+                  <c:v>1.9316183817575949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0410011519263627</c:v>
+                  <c:v>1.7536779469973121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3235677510391675</c:v>
+                  <c:v>3.6840016584857245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5214889351172451</c:v>
+                  <c:v>1.5390201594947484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0522173895894018</c:v>
+                  <c:v>0.82704573233235945</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8759499654598648</c:v>
+                  <c:v>4.6186446038609512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0824690468699707</c:v>
+                  <c:v>4.4744949396053135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.575759255009098</c:v>
+                  <c:v>1.3376700979886955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2013659361987523</c:v>
+                  <c:v>3.6223482696593736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8542055176544583</c:v>
+                  <c:v>2.0894544407353499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9688561664963111</c:v>
+                  <c:v>3.0097108662875267</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4594557222414446</c:v>
+                  <c:v>4.2944850703747122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3281613443653</c:v>
+                  <c:v>1.6330642383867868</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0898789490618359</c:v>
+                  <c:v>2.687224142405658</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0526302671009162</c:v>
+                  <c:v>2.8170686428904066</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3660038337864595</c:v>
+                  <c:v>2.5727170897373286</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9783736628460775</c:v>
+                  <c:v>1.6467839017166144</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.038361893317902</c:v>
+                  <c:v>4.0122529706330727</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.860904798083669</c:v>
+                  <c:v>4.5993457533580742</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4218575795210651</c:v>
+                  <c:v>5.1662884206919513</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3169053245296367</c:v>
+                  <c:v>5.0452964314302369</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.8294531183442642</c:v>
+                  <c:v>4.3394875083330113</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3592125568257556</c:v>
+                  <c:v>0.43474001057771594</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5991861188266832</c:v>
+                  <c:v>4.5862957565835512</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4582096901998129</c:v>
+                  <c:v>1.1991363682101608</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.5686747310337705</c:v>
+                  <c:v>3.0333034633591307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4599514690816364</c:v>
+                  <c:v>2.3941217676252435</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.3022170102433304</c:v>
+                  <c:v>2.1588649280035699</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.7109959253489393</c:v>
+                  <c:v>1.2251015597360788</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0197934928650989</c:v>
+                  <c:v>3.6830220225796504</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9471868749506696</c:v>
+                  <c:v>0.88431022126929248</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1990619457696894</c:v>
+                  <c:v>3.1077322537349925</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7797886089755304</c:v>
+                  <c:v>1.3264013706474436</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2755504060000655</c:v>
+                  <c:v>4.1804514164732316</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2292979419485723</c:v>
+                  <c:v>1.2315727717405767</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4400215304608031</c:v>
+                  <c:v>3.5744222801540348</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6562180819088961</c:v>
+                  <c:v>4.2246400836075546</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.2725536487486755</c:v>
+                  <c:v>3.7554370089788405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2767053880662451</c:v>
+                  <c:v>4.2500252216766672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3119899890489473</c:v>
+                  <c:v>2.2639584954362761</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.6507540065842372</c:v>
+                  <c:v>1.3837056671960917</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2907830901787456</c:v>
+                  <c:v>2.0780364775876836</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7115920262212647</c:v>
+                  <c:v>4.4748126640315249</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.3163949548389304</c:v>
+                  <c:v>1.4487664637961237</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6803655140378178</c:v>
+                  <c:v>2.7622120611655037</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.1026701709895135</c:v>
+                  <c:v>4.2893207156136768</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.9494160466544868</c:v>
+                  <c:v>3.5472501481754435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9712895830387538</c:v>
+                  <c:v>2.7600465574682436</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2940451853310653</c:v>
+                  <c:v>2.047197236769204</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.8121515269551138</c:v>
+                  <c:v>1.0483346486797664</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9815811856148393</c:v>
+                  <c:v>3.9948968324424818</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.5132355387791403</c:v>
+                  <c:v>2.4154815185533507</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.8726820914953595</c:v>
+                  <c:v>2.090081371560196</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0654120270652596</c:v>
+                  <c:v>1.6114298619325031</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0233852845316518</c:v>
+                  <c:v>0.42969551188921273</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.4099900255520952</c:v>
+                  <c:v>5.3124142179567926</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.3695263025734592</c:v>
+                  <c:v>2.8922272067249324</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.3462886119918922</c:v>
+                  <c:v>2.4550459846668509</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.8691690520623609</c:v>
+                  <c:v>1.533697670256764</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.4870865668483213</c:v>
+                  <c:v>0.43558308590889272</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.8192691813504394</c:v>
+                  <c:v>5.8942566710934088</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5945691276812819</c:v>
+                  <c:v>1.0849092952874972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8014574538162299</c:v>
+                  <c:v>5.4943486995432442</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.596226226528354</c:v>
+                  <c:v>0.9707589204236301</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3957854317224814</c:v>
+                  <c:v>4.183268811450608</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.6436114324170346</c:v>
+                  <c:v>4.2223185923034006</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1352671585460166</c:v>
+                  <c:v>3.5247345731600546</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.3274305790235621</c:v>
+                  <c:v>2.0296550802570272</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.3670665300058218</c:v>
+                  <c:v>3.6821593239398296</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8958089408708165</c:v>
+                  <c:v>0.97270661220445342</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.8177859941163668</c:v>
+                  <c:v>3.2216894990151363</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.5065575329105925</c:v>
+                  <c:v>1.4381571760001788</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.6786227796737734</c:v>
+                  <c:v>1.4574868791950994</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.4800622789198146</c:v>
+                  <c:v>4.9991560381869693</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.1462542491091057</c:v>
+                  <c:v>4.6529159183266806</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.3005337562219674</c:v>
+                  <c:v>0.98001041178807025</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.5973345729869921</c:v>
+                  <c:v>3.7861146950830658</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.2094006548340852</c:v>
+                  <c:v>1.150803575097977</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9004692186385119</c:v>
+                  <c:v>4.9485628698383106</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.69847242486572825</c:v>
+                  <c:v>4.6318968587431026</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.3200695437260332</c:v>
+                  <c:v>5.1877485662360767</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2463535948710334</c:v>
+                  <c:v>2.8762972968371816</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.5661920482591758</c:v>
+                  <c:v>3.6077660517741728</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98294643471514109</c:v>
+                  <c:v>5.1867145881508847</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.4329201319996017</c:v>
+                  <c:v>3.2740844493620012</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.6485544635473453</c:v>
+                  <c:v>3.3419224905433746</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5315006739280483</c:v>
+                  <c:v>1.7766471058270541</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.5509164387939522</c:v>
+                  <c:v>4.526804032324784</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.2530242931075843</c:v>
+                  <c:v>3.1272292232576016</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.0362716801397927</c:v>
+                  <c:v>4.7823966482381222</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.93497704159039152</c:v>
+                  <c:v>5.1403973545936763</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.1071419073334798</c:v>
+                  <c:v>3.7895478988870268</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.469563474502757</c:v>
+                  <c:v>3.5356088754929842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,6 +851,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -801,618 +886,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$100</c:f>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.80457100896679068</c:v>
+                  <c:v>0.89480662557684998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43019622549560521</c:v>
+                  <c:v>0.90130677324437225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57429824870481561</c:v>
+                  <c:v>0.84293063261890333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48373610900607911</c:v>
+                  <c:v>0.73921378949619976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61171290798216538</c:v>
+                  <c:v>0.13492493216910217</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49690253861734812</c:v>
+                  <c:v>0.8946244499950603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21892235284734785</c:v>
+                  <c:v>0.15921478078704598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66793071811664362</c:v>
+                  <c:v>0.20007907012522463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43352127924704276</c:v>
+                  <c:v>0.18073579313853472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99175300162126412</c:v>
+                  <c:v>0.57721387647555567</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70141716643241359</c:v>
+                  <c:v>0.2748251341759923</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4856619768846222</c:v>
+                  <c:v>0.10286250015421305</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32759300546257353</c:v>
+                  <c:v>0.77530249396896012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.57089627774894136</c:v>
+                  <c:v>0.88320781836270146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.74498116407616388</c:v>
+                  <c:v>0.20766005031836265</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66895206065503676</c:v>
+                  <c:v>0.68715148411823801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26299490657823132</c:v>
+                  <c:v>0.31574279698426855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58636653163406161</c:v>
+                  <c:v>0.5853207706655833</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93856040561488929</c:v>
+                  <c:v>0.69662203212378382</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.31457668639551994</c:v>
+                  <c:v>0.30452559275203028</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.70774248359736658</c:v>
+                  <c:v>0.3844290522515782</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24727216122999196</c:v>
+                  <c:v>0.40195261732208187</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9537405921416664</c:v>
+                  <c:v>0.36019641857135343</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34727268918604237</c:v>
+                  <c:v>0.17861875897482971</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.45806741476502899</c:v>
+                  <c:v>0.79353526539820363</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.57447450204721739</c:v>
+                  <c:v>0.83029619777208019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.69616551031849083</c:v>
+                  <c:v>0.99156986933218627</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2837278291097024</c:v>
+                  <c:v>0.94004886585823022</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.63548836860787139</c:v>
+                  <c:v>0.67825124862902297</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44097294170603762</c:v>
+                  <c:v>5.9006815889524833E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2066637032394798</c:v>
+                  <c:v>0.78702800638086912</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92681584353754687</c:v>
+                  <c:v>7.2466948669769438E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45544040998459923</c:v>
+                  <c:v>0.48265619492882494</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.63346963710285387</c:v>
+                  <c:v>0.40066095939875113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9136781000372195</c:v>
+                  <c:v>0.3372686001084485</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.80911156441756971</c:v>
+                  <c:v>0.23494316587940589</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.14254607312173373</c:v>
+                  <c:v>0.54621053208308945</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.82771450563831983</c:v>
+                  <c:v>5.5765379960350803E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19470654588589709</c:v>
+                  <c:v>0.61905105878825806</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.48838037190843553</c:v>
+                  <c:v>0.13250077495005064</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25482522536953522</c:v>
+                  <c:v>0.78678751296130645</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.77067680624939683</c:v>
+                  <c:v>0.22747194498754353</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.47437241136485642</c:v>
+                  <c:v>0.63913306517569779</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6631659204325886</c:v>
+                  <c:v>0.70246871413616907</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.61182573465295098</c:v>
+                  <c:v>0.67112816868539171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.39655822474761893</c:v>
+                  <c:v>0.68471600003559063</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.39968590786678049</c:v>
+                  <c:v>0.26606509657396504</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.98243210533815917</c:v>
+                  <c:v>0.21647287522378744</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.33988397059580033</c:v>
+                  <c:v>0.25066610562502534</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.64187030020601299</c:v>
+                  <c:v>0.89256105833652399</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.67246979420209796</c:v>
+                  <c:v>0.13829175126751703</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.30293211731703074</c:v>
+                  <c:v>0.42243256549617914</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.6200695169735243</c:v>
+                  <c:v>0.68380418460974046</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.62583233384489068</c:v>
+                  <c:v>0.54555842077957328</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.96079559805917858</c:v>
+                  <c:v>0.49396029250972684</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.57073472096458788</c:v>
+                  <c:v>0.39577528082997315</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.50846133395866167</c:v>
+                  <c:v>9.5974328840143786E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.54682961470513414</c:v>
+                  <c:v>0.62668829123960568</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.79390460969382026</c:v>
+                  <c:v>0.33691938638888752</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.60998494745972098</c:v>
+                  <c:v>0.34520325266903229</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.32283746477723396</c:v>
+                  <c:v>0.20650006721003822</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.83768964424745851</c:v>
+                  <c:v>3.965956132933568E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.70208644892519079</c:v>
+                  <c:v>0.99738620805383382</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.92588729409625725</c:v>
+                  <c:v>0.57432788016221448</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.72835240047314997</c:v>
+                  <c:v>0.30437525229008744</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.48880643921737266</c:v>
+                  <c:v>0.25739551142024997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.17547695712017852</c:v>
+                  <c:v>5.6075165849163722E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.32645081465708115</c:v>
+                  <c:v>0.99681530161163334</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.25192070535698019</c:v>
+                  <c:v>0.17048362224349811</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8335846734502281E-2</c:v>
+                  <c:v>0.93817706893862285</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.6912094531764903</c:v>
+                  <c:v>0.17448456893056397</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.25185910189314453</c:v>
+                  <c:v>0.79607673177992133</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.23884112017798331</c:v>
+                  <c:v>0.6729995954398722</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.45635388436756119</c:v>
+                  <c:v>0.512857867041697</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.90671635872900413</c:v>
+                  <c:v>0.3089921977889214</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.79957124240722754</c:v>
+                  <c:v>0.73271681520879506</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.49861815275383725</c:v>
+                  <c:v>9.5447320486831577E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.7699097402993651</c:v>
+                  <c:v>0.47395038254099431</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.42140750498844448</c:v>
+                  <c:v>0.25592528500028999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.48222914660170779</c:v>
+                  <c:v>0.27617188288592542</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.96894436932947126</c:v>
+                  <c:v>0.93876643537497773</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.48740262012253044</c:v>
+                  <c:v>0.77425052713796283</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.4405162100841139</c:v>
+                  <c:v>0.15095510719351979</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.80365624246073375</c:v>
+                  <c:v>0.71982428112186037</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.9556325361924507</c:v>
+                  <c:v>0.15428687325085844</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.21614797799577534</c:v>
+                  <c:v>0.81308243378720158</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.7281369158099005E-2</c:v>
+                  <c:v>0.76988521157199985</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.82847891924195916</c:v>
+                  <c:v>0.96084994569261195</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.8792507825710234E-2</c:v>
+                  <c:v>0.49802944368061131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.60276052066735519</c:v>
+                  <c:v>0.70998875378773008</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.14875966568576038</c:v>
+                  <c:v>0.98655251492840645</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.54913535920297973</c:v>
+                  <c:v>0.60052201564958374</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.8692162728644488</c:v>
+                  <c:v>0.63661054206948364</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.19051243004886198</c:v>
+                  <c:v>0.24039904125417766</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.55716171253092517</c:v>
+                  <c:v>0.82822354635744955</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.42642737839705525</c:v>
+                  <c:v>0.49948409238784641</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.55421866155360267</c:v>
+                  <c:v>0.94261181482480827</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.7036976898457796E-2</c:v>
+                  <c:v>0.94486393206953634</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.84488202701502946</c:v>
+                  <c:v>0.71354832032006033</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.50939410826340525</c:v>
+                  <c:v>0.6556656477607925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$100</c:f>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4.9472936417033502</c:v>
+                  <c:v>5.3522420912818207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1354439136150316</c:v>
+                  <c:v>5.478201928288394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5229042890575246</c:v>
+                  <c:v>4.3482806210713401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9730053454411447</c:v>
+                  <c:v>3.7236856039752677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2650503305919036</c:v>
+                  <c:v>1.5365965825868027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.271757796911575</c:v>
+                  <c:v>4.5864245119329823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6225576359161349</c:v>
+                  <c:v>1.3666090531941326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8650675135037247</c:v>
+                  <c:v>1.9316183817575949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0410011519263627</c:v>
+                  <c:v>1.7536779469973121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3235677510391675</c:v>
+                  <c:v>3.6840016584857245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5214889351172451</c:v>
+                  <c:v>1.5390201594947484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0522173895894018</c:v>
+                  <c:v>0.82704573233235945</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8759499654598648</c:v>
+                  <c:v>4.6186446038609512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0824690468699707</c:v>
+                  <c:v>4.4744949396053135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.575759255009098</c:v>
+                  <c:v>1.3376700979886955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2013659361987523</c:v>
+                  <c:v>3.6223482696593736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8542055176544583</c:v>
+                  <c:v>2.0894544407353499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9688561664963111</c:v>
+                  <c:v>3.0097108662875267</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4594557222414446</c:v>
+                  <c:v>4.2944850703747122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3281613443653</c:v>
+                  <c:v>1.6330642383867868</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0898789490618359</c:v>
+                  <c:v>2.687224142405658</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0526302671009162</c:v>
+                  <c:v>2.8170686428904066</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3660038337864595</c:v>
+                  <c:v>2.5727170897373286</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9783736628460775</c:v>
+                  <c:v>1.6467839017166144</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.038361893317902</c:v>
+                  <c:v>4.0122529706330727</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.860904798083669</c:v>
+                  <c:v>4.5993457533580742</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4218575795210651</c:v>
+                  <c:v>5.1662884206919513</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3169053245296367</c:v>
+                  <c:v>5.0452964314302369</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.8294531183442642</c:v>
+                  <c:v>4.3394875083330113</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3592125568257556</c:v>
+                  <c:v>0.43474001057771594</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5991861188266832</c:v>
+                  <c:v>4.5862957565835512</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4582096901998129</c:v>
+                  <c:v>1.1991363682101608</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.5686747310337705</c:v>
+                  <c:v>3.0333034633591307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4599514690816364</c:v>
+                  <c:v>2.3941217676252435</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.3022170102433304</c:v>
+                  <c:v>2.1588649280035699</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.7109959253489393</c:v>
+                  <c:v>1.2251015597360788</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0197934928650989</c:v>
+                  <c:v>3.6830220225796504</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9471868749506696</c:v>
+                  <c:v>0.88431022126929248</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1990619457696894</c:v>
+                  <c:v>3.1077322537349925</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7797886089755304</c:v>
+                  <c:v>1.3264013706474436</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2755504060000655</c:v>
+                  <c:v>4.1804514164732316</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2292979419485723</c:v>
+                  <c:v>1.2315727717405767</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4400215304608031</c:v>
+                  <c:v>3.5744222801540348</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6562180819088961</c:v>
+                  <c:v>4.2246400836075546</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.2725536487486755</c:v>
+                  <c:v>3.7554370089788405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2767053880662451</c:v>
+                  <c:v>4.2500252216766672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3119899890489473</c:v>
+                  <c:v>2.2639584954362761</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.6507540065842372</c:v>
+                  <c:v>1.3837056671960917</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2907830901787456</c:v>
+                  <c:v>2.0780364775876836</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7115920262212647</c:v>
+                  <c:v>4.4748126640315249</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.3163949548389304</c:v>
+                  <c:v>1.4487664637961237</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6803655140378178</c:v>
+                  <c:v>2.7622120611655037</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.1026701709895135</c:v>
+                  <c:v>4.2893207156136768</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.9494160466544868</c:v>
+                  <c:v>3.5472501481754435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9712895830387538</c:v>
+                  <c:v>2.7600465574682436</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2940451853310653</c:v>
+                  <c:v>2.047197236769204</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.8121515269551138</c:v>
+                  <c:v>1.0483346486797664</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9815811856148393</c:v>
+                  <c:v>3.9948968324424818</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.5132355387791403</c:v>
+                  <c:v>2.4154815185533507</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.8726820914953595</c:v>
+                  <c:v>2.090081371560196</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0654120270652596</c:v>
+                  <c:v>1.6114298619325031</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0233852845316518</c:v>
+                  <c:v>0.42969551188921273</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.4099900255520952</c:v>
+                  <c:v>5.3124142179567926</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.3695263025734592</c:v>
+                  <c:v>2.8922272067249324</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.3462886119918922</c:v>
+                  <c:v>2.4550459846668509</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.8691690520623609</c:v>
+                  <c:v>1.533697670256764</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.4870865668483213</c:v>
+                  <c:v>0.43558308590889272</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.8192691813504394</c:v>
+                  <c:v>5.8942566710934088</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5945691276812819</c:v>
+                  <c:v>1.0849092952874972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8014574538162299</c:v>
+                  <c:v>5.4943486995432442</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.596226226528354</c:v>
+                  <c:v>0.9707589204236301</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3957854317224814</c:v>
+                  <c:v>4.183268811450608</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.6436114324170346</c:v>
+                  <c:v>4.2223185923034006</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1352671585460166</c:v>
+                  <c:v>3.5247345731600546</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.3274305790235621</c:v>
+                  <c:v>2.0296550802570272</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.3670665300058218</c:v>
+                  <c:v>3.6821593239398296</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8958089408708165</c:v>
+                  <c:v>0.97270661220445342</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.8177859941163668</c:v>
+                  <c:v>3.2216894990151363</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.5065575329105925</c:v>
+                  <c:v>1.4381571760001788</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.6786227796737734</c:v>
+                  <c:v>1.4574868791950994</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.4800622789198146</c:v>
+                  <c:v>4.9991560381869693</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.1462542491091057</c:v>
+                  <c:v>4.6529159183266806</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.3005337562219674</c:v>
+                  <c:v>0.98001041178807025</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.5973345729869921</c:v>
+                  <c:v>3.7861146950830658</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.2094006548340852</c:v>
+                  <c:v>1.150803575097977</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9004692186385119</c:v>
+                  <c:v>4.9485628698383106</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.69847242486572825</c:v>
+                  <c:v>4.6318968587431026</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.3200695437260332</c:v>
+                  <c:v>5.1877485662360767</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2463535948710334</c:v>
+                  <c:v>2.8762972968371816</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.5661920482591758</c:v>
+                  <c:v>3.6077660517741728</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98294643471514109</c:v>
+                  <c:v>5.1867145881508847</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.4329201319996017</c:v>
+                  <c:v>3.2740844493620012</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.6485544635473453</c:v>
+                  <c:v>3.3419224905433746</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5315006739280483</c:v>
+                  <c:v>1.7766471058270541</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.5509164387939522</c:v>
+                  <c:v>4.526804032324784</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.2530242931075843</c:v>
+                  <c:v>3.1272292232576016</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.0362716801397927</c:v>
+                  <c:v>4.7823966482381222</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.93497704159039152</c:v>
+                  <c:v>5.1403973545936763</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.1071419073334798</c:v>
+                  <c:v>3.7895478988870268</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.469563474502757</c:v>
+                  <c:v>3.5356088754929842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,6 +1524,7 @@
         <c:axId val="440049256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2195,15 +2281,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2529,1412 +2615,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694CE0C3-10FB-46DD-B4C5-9D98FAF203A4}">
-  <dimension ref="C1:E100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E100"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.92443859686939656</v>
-      </c>
-      <c r="D1">
+        <v>0.87820896339757015</v>
+      </c>
+      <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.80457100896679068</v>
-      </c>
-      <c r="E1">
-        <f ca="1">C1+5*D1</f>
-        <v>4.9472936417033502</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+        <v>0.89480662557684998</v>
+      </c>
       <c r="C2">
-        <f t="shared" ref="C2:D65" ca="1" si="0">RAND()</f>
-        <v>0.98446278613700533</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43019622549560521</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E65" ca="1" si="1">C2+5*D2</f>
-        <v>3.1354439136150316</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+        <f ca="1">A2+5*B2</f>
+        <v>5.3522420912818207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:B66" ca="1" si="0">RAND()</f>
+        <v>0.97166806206653256</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90130677324437225</v>
+      </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6514130455334467</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57429824870481561</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5229042890575246</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C66" ca="1" si="1">A3+5*B3</f>
+        <v>5.478201928288394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13362745797682307</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84293063261890333</v>
+      </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55432480041074894</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48373610900607911</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9730053454411447</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3482806210713401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7616656494269032E-2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73921378949619976</v>
+      </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20648579068107675</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.61171290798216538</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2650503305919036</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7236856039752677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86197192174129167</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13492493216910217</v>
+      </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78724510382483426</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49690253861734812</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.271757796911575</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5365965825868027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11330226195768012</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8946244499950603</v>
+      </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52794587167939555</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21892235284734785</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6225576359161349</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5864245119329823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57053514925890281</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15921478078704598</v>
+      </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52541392292050648</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66793071811664362</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8650675135037247</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3666090531941326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93122303113147176</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20007907012522463</v>
+      </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87339475569114911</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43352127924704276</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0410011519263627</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9316183817575949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84999898130463847</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18073579313853472</v>
+      </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36480274293284709</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99175300162126412</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3235677510391675</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7536779469973121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79793227610794604</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57721387647555567</v>
+      </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4403102955176994E-2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70141716643241359</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5214889351172451</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6840016584857245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16489448861478662</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2748251341759923</v>
+      </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62390750516629045</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4856619768846222</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0522173895894018</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5390201594947484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31273323156129418</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10286250015421305</v>
+      </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23798493814699728</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32759300546257353</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8759499654598648</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82704573233235945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74213213401615097</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77530249396896012</v>
+      </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.227987658125264</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57089627774894136</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0824690468699707</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6186446038609512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8455847791805904E-2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88320781836270146</v>
+      </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85085343462827845</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74498116407616388</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.575759255009098</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4744949396053135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29936984639688247</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20766005031836265</v>
+      </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85660563292356851</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66895206065503676</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2013659361987523</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3376700979886955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1865908490681838</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68715148411823801</v>
+      </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53923098476330156</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26299490657823132</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8542055176544583</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6223482696593736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51074045581400707</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31574279698426855</v>
+      </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7023508326003207E-2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58636653163406161</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9688561664963111</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0894544407353499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3107012959610316E-2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5853207706655833</v>
+      </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76665369416699802</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93856040561488929</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4594557222414446</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0097108662875267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81137490975579363</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69662203212378382</v>
+      </c>
       <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75527791238770037</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31457668639551994</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3281613443653</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2944850703747122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11043627462663552</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30452559275203028</v>
+      </c>
       <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55116653107500246</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70774248359736658</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0898789490618359</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6330642383867868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76507888114776723</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3844290522515782</v>
+      </c>
       <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8162694609509562</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24727216122999196</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0526302671009162</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.687224142405658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80730555627999734</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40195261732208187</v>
+      </c>
       <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59730087307812785</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9537405921416664</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3660038337864595</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8170686428904066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77173499688056146</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36019641857135343</v>
+      </c>
       <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24201021691586577</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34727268918604237</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9783736628460775</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5727170897373286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75369010684246585</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17861875897482971</v>
+      </c>
       <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7480248194927569</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45806741476502899</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.038361893317902</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6467839017166144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4576643642054714E-2</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79353526539820363</v>
+      </c>
       <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98853228784758207</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57447450204721739</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.860904798083669</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0122529706330727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44786476449767365</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83029619777208019</v>
+      </c>
       <c r="C27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94103002792861135</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69616551031849083</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4218575795210651</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5993457533580742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20843907403101947</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99156986933218627</v>
+      </c>
       <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8982661789811246</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2837278291097024</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3169053245296367</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1662884206919513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34505210213908588</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94004886585823022</v>
+      </c>
       <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65201127530490743</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.63548836860787139</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8294531183442642</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0452964314302369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94823126518789635</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67825124862902297</v>
+      </c>
       <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15434784829556747</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44097294170603762</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3592125568257556</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3394875083330113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13970593113009178</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9006815889524833E-2</v>
+      </c>
       <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56586760262928404</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2066637032394798</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5991861188266832</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43474001057771594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65115572467920613</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78702800638086912</v>
+      </c>
       <c r="C32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82413047251207838</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92681584353754687</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4582096901998129</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5862957565835512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83680162486131349</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2466948669769438E-2</v>
+      </c>
       <c r="C33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29147268111077418</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45544040998459923</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5686747310337705</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1991363682101608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62002248871500565</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48265619492882494</v>
+      </c>
       <c r="C34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29260328356736698</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.63346963710285387</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4599514690816364</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0333034633591307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3908169706314879</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40066095939875113</v>
+      </c>
       <c r="C35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73382651005723221</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9136781000372195</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3022170102433304</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3941217676252435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47252192746132726</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3372686001084485</v>
+      </c>
       <c r="C36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6654381032610901</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80911156441756971</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.7109959253489393</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1588649280035699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0385730339049473E-2</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23494316587940589</v>
+      </c>
       <c r="C37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30706312725643037</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14254607312173373</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0197934928650989</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2251015597360788</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95196936216420336</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54621053208308945</v>
+      </c>
       <c r="C38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80861434675907096</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82771450563831983</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9471868749506696</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6830220225796504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85642753128911708</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5765379960350803E-3</v>
+      </c>
       <c r="C39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22552921634020395</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19470654588589709</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1990619457696894</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88431022126929248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2476959793702003E-2</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61905105878825806</v>
+      </c>
       <c r="C40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33788674943335306</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48838037190843553</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7797886089755304</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1077322537349925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66389749589719049</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13250077495005064</v>
+      </c>
       <c r="C41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4242791523894072E-3</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25482522536953522</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2755504060000655</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3264013706474436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24651385166669948</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78678751296130645</v>
+      </c>
       <c r="C42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37591391070158808</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77067680624939683</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2292979419485723</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1804514164732316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4213046802859135E-2</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22747194498754353</v>
+      </c>
       <c r="C43">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.815947363652064E-2</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47437241136485642</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4400215304608031</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2315727717405767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3787569542755459</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63913306517569779</v>
+      </c>
       <c r="C44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34038847974595299</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6631659204325886</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6562180819088961</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5744222801540348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71229651292670948</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70246871413616907</v>
+      </c>
       <c r="C45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21342497548392036</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.61182573465295098</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2725536487486755</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2246400836075546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39979616555188158</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67112816868539171</v>
+      </c>
       <c r="C46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29391426432815038</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39655822474761893</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2767053880662451</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7554370089788405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82644522149871391</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68471600003559063</v>
+      </c>
       <c r="C47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31356044971504471</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39968590786678049</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3119899890489473</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2500252216766672</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93363301256645082</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26606509657396504</v>
+      </c>
       <c r="C48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73859347989344137</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98243210533815917</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6507540065842372</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2639584954362761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30134129107715446</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21647287522378744</v>
+      </c>
       <c r="C49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59136323719974415</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33988397059580033</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2907830901787456</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3837056671960917</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82470594946255693</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25066610562502534</v>
+      </c>
       <c r="C50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50224052519119999</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64187030020601299</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7115920262212647</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0780364775876836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2007372348905476E-2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89256105833652399</v>
+      </c>
       <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9540459838284403</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67246979420209796</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.3163949548389304</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4748126640315249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75730770745853848</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13829175126751703</v>
+      </c>
       <c r="C52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16570492745266407</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30293211731703074</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6803655140378178</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4487664637961237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65004923368460787</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42243256549617914</v>
+      </c>
       <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3225861218917343E-3</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6200695169735243</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1026701709895135</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7622120611655037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87029979256497458</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68380418460974046</v>
+      </c>
       <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82025437743003327</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62583233384489068</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9494160466544868</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2893207156136768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8194580442775774</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54555842077957328</v>
+      </c>
       <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16731159274286123</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96079559805917858</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9712895830387538</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5472501481754435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29024509491960904</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49396029250972684</v>
+      </c>
       <c r="C56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44037158050812586</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57073472096458788</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2940451853310653</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7600465574682436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8320832619338412E-2</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39577528082997315</v>
+      </c>
       <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2698448571618054</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50846133395866167</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8121515269551138</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.047197236769204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56846300447904752</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5974328840143786E-2</v>
+      </c>
       <c r="C58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24743311208916885</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54682961470513414</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9815811856148393</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0483346486797664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8614553762444539</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62668829123960568</v>
+      </c>
       <c r="C59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5437124903100391</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79390460969382026</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5132355387791403</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9948968324424818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73088458660891298</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33691938638888752</v>
+      </c>
       <c r="C60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82275735419675422</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60998494745972098</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8726820914953595</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4154815185533507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36406510821503446</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34520325266903229</v>
+      </c>
       <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4512247031790898</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32283746477723396</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0654120270652596</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.090081371560196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57892952588231217</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20650006721003822</v>
+      </c>
       <c r="C62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83493706329435924</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83768964424745851</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.0233852845316518</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6114298619325031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23139770524253434</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.965956132933568E-2</v>
+      </c>
       <c r="C63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89955778092614125</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70208644892519079</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4099900255520952</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42969551188921273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32548317768762314</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99738620805383382</v>
+      </c>
       <c r="C64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74008983209217294</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92588729409625725</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3695263025734592</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3124142179567926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0587805913860113E-2</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57432788016221448</v>
+      </c>
       <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70452660962614255</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72835240047314997</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.3462886119918922</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8922272067249324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93316972321641378</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30437525229008744</v>
+      </c>
       <c r="C66">
-        <f t="shared" ref="C66:D100" ca="1" si="2">RAND()</f>
-        <v>0.425136855975498</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48880643921737266</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E100" ca="1" si="3">C66+5*D66</f>
-        <v>2.8691690520623609</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4550459846668509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" ref="A67:B101" ca="1" si="2">RAND()</f>
+        <v>0.24672011315551423</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25739551142024997</v>
+      </c>
       <c r="C67">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60970178124742869</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17547695712017852</v>
-      </c>
-      <c r="E67">
+        <f t="shared" ref="C67:C101" ca="1" si="3">A67+5*B67</f>
+        <v>1.533697670256764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15520725666307411</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6075165849163722E-2</v>
+      </c>
+      <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4870865668483213</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.18701510806503363</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32645081465708115</v>
-      </c>
-      <c r="E68">
+        <v>0.43558308590889272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91018016303524141</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99681530161163334</v>
+      </c>
+      <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8192691813504394</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.33496560089638117</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25192070535698019</v>
-      </c>
-      <c r="E69">
+        <v>5.8942566710934088</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23249118407000668</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17048362224349811</v>
+      </c>
+      <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5945691276812819</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.7097782201437185</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8335846734502281E-2</v>
-      </c>
-      <c r="E70">
+        <v>1.0849092952874972</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80346335485012987</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93817706893862285</v>
+      </c>
+      <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8014574538162299</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14017896064590263</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.6912094531764903</v>
-      </c>
-      <c r="E71">
+        <v>5.4943486995432442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8336075770810272E-2</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17448456893056397</v>
+      </c>
+      <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.596226226528354</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.13648992225675871</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25185910189314453</v>
-      </c>
-      <c r="E72">
+        <v>0.9707589204236301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20288515255100092</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.79607673177992133</v>
+      </c>
+      <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3957854317224814</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.44940583152711788</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.23884112017798331</v>
-      </c>
-      <c r="E73">
+        <v>4.183268811450608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85732061510403901</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6729995954398722</v>
+      </c>
+      <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6436114324170346</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8534977367082105</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.45635388436756119</v>
-      </c>
-      <c r="E74">
+        <v>4.2223185923034006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96044523795156955</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.512857867041697</v>
+      </c>
+      <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1352671585460166</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.79384878537854131</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.90671635872900413</v>
-      </c>
-      <c r="E75">
+        <v>3.5247345731600546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48469409131242036</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3089921977889214</v>
+      </c>
+      <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3274305790235621</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36921031796968407</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.79957124240722754</v>
-      </c>
-      <c r="E76">
+        <v>2.0296550802570272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8575247895854408E-2</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73271681520879506</v>
+      </c>
+      <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3670665300058218</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4027181771016306</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.49861815275383725</v>
-      </c>
-      <c r="E77">
+        <v>3.6821593239398296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49547000977029554</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5447320486831577E-2</v>
+      </c>
+      <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8958089408708165</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.96823729261954139</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.7699097402993651</v>
-      </c>
-      <c r="E78">
+        <v>0.97270661220445342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85193758631016503</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47395038254099431</v>
+      </c>
+      <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8177859941163668</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39952000796837028</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.42140750498844448</v>
-      </c>
-      <c r="E79">
+        <v>3.2216894990151363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15853075099872893</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25592528500028999</v>
+      </c>
+      <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5065575329105925</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26747704666523453</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48222914660170779</v>
-      </c>
-      <c r="E80">
+        <v>1.4381571760001788</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6627464765472331E-2</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27617188288592542</v>
+      </c>
+      <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6786227796737734</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.6353404322724584</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.96894436932947126</v>
-      </c>
-      <c r="E81">
+        <v>1.4574868791950994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30532386131208089</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93876643537497773</v>
+      </c>
+      <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4800622789198146</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.70924114849645337</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48740262012253044</v>
-      </c>
-      <c r="E82">
+        <v>4.9991560381869693</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78166328263686613</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77425052713796283</v>
+      </c>
+      <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1462542491091057</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.7952705801398032E-2</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4405162100841139</v>
-      </c>
-      <c r="E83">
+        <v>4.6529159183266806</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2252348758204713</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15095510719351979</v>
+      </c>
+      <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3005337562219674</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.57905336068332358</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.80365624246073375</v>
-      </c>
-      <c r="E84">
+        <v>0.98001041178807025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18699328947376381</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71982428112186037</v>
+      </c>
+      <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5973345729869921</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.43123797387183183</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.9556325361924507</v>
-      </c>
-      <c r="E85">
+        <v>3.7861146950830658</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37936920884368497</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15428687325085844</v>
+      </c>
+      <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2094006548340852</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8197293286596351</v>
-      </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21614797799577534</v>
-      </c>
-      <c r="E86">
+        <v>1.150803575097977</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.8831507009023033</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81308243378720158</v>
+      </c>
+      <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9004692186385119</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.41206557907523322</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7281369158099005E-2</v>
-      </c>
-      <c r="E87">
+        <v>4.9485628698383106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.7824708008831035</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76988521157199985</v>
+      </c>
+      <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69847242486572825</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17767494751623758</v>
-      </c>
-      <c r="D88">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.82847891924195916</v>
-      </c>
-      <c r="E88">
+        <v>4.6318968587431026</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38349883777301685</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96084994569261195</v>
+      </c>
+      <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3200695437260332</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.85239105574248208</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8792507825710234E-2</v>
-      </c>
-      <c r="E89">
+        <v>5.1877485662360767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3861500784341253</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49802944368061131</v>
+      </c>
+      <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2463535948710334</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.55238944492239972</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60276052066735519</v>
-      </c>
-      <c r="E90">
+        <v>2.8762972968371816</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7822282835522487E-2</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70998875378773008</v>
+      </c>
+      <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5661920482591758</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2391481062863392</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14875966568576038</v>
-      </c>
-      <c r="E91">
+        <v>3.6077660517741728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25395201350885266</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98655251492840645</v>
+      </c>
+      <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98294643471514109</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.68724333598470277</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.54913535920297973</v>
-      </c>
-      <c r="E92">
+        <v>5.1867145881508847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27147437111408279</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60052201564958374</v>
+      </c>
+      <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4329201319996017</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.30247309922510135</v>
-      </c>
-      <c r="D93">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8692162728644488</v>
-      </c>
-      <c r="E93">
+        <v>3.2740844493620012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15886978019595654</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63661054206948364</v>
+      </c>
+      <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6485544635473453</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.57893852368373844</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19051243004886198</v>
-      </c>
-      <c r="E94">
+        <v>3.3419224905433746</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5746518995561658</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24039904125417766</v>
+      </c>
+      <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5315006739280483</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.76510787613932629</v>
-      </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.55716171253092517</v>
-      </c>
-      <c r="E95">
+        <v>1.7766471058270541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38568630053753628</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82822354635744955</v>
+      </c>
+      <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5509164387939522</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12088740112230811</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.42642737839705525</v>
-      </c>
-      <c r="E96">
+        <v>4.526804032324784</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62980876131836938</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49948409238784641</v>
+      </c>
+      <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2530242931075843</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26517837237177933</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.55421866155360267</v>
-      </c>
-      <c r="E97">
+        <v>3.1272292232576016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.9337574114080591E-2</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94261181482480827</v>
+      </c>
+      <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0362716801397927</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.49979215709810254</v>
-      </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.7036976898457796E-2</v>
-      </c>
-      <c r="E98">
+        <v>4.7823966482381222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41607769424599483</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94486393206953634</v>
+      </c>
+      <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93497704159039152</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.88273177225833244</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.84488202701502946</v>
-      </c>
-      <c r="E99">
+        <v>5.1403973545936763</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22180629728672485</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71354832032006033</v>
+      </c>
+      <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1071419073334798</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.92259293318573055</v>
-      </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.50939410826340525</v>
-      </c>
-      <c r="E100">
+        <v>3.7895478988870268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25728063668902168</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6556656477607925</v>
+      </c>
+      <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>3.469563474502757</v>
+        <v>3.5356088754929842</v>
       </c>
     </row>
   </sheetData>
